--- a/5mindata/5min_final.xlsx
+++ b/5mindata/5min_final.xlsx
@@ -14,21 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Number</t>
+    <t>degrees C</t>
   </si>
   <si>
-    <t>Degrees</t>
-  </si>
-  <si>
-    <t>Percent1</t>
-  </si>
-  <si>
-    <t>Percent2</t>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -381,13 +375,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
